--- a/TestData_Register.xlsx
+++ b/TestData_Register.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashchauhan\IdeaProjects\Data Driven Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6D7F92-EDBC-410E-B91D-2CBFD9FA55E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899AA622-54D8-4AF4-ABF1-DB1393FD0FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8060D9F1-7CE6-4673-98F7-ABA181ACEB67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8060D9F1-7CE6-4673-98F7-ABA181ACEB67}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t xml:space="preserve">Gender </t>
   </si>
@@ -141,6 +142,30 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>ico-register</t>
+  </si>
+  <si>
+    <t>DateOfBirthDay</t>
+  </si>
+  <si>
+    <t>DateOfBirthMonth</t>
+  </si>
+  <si>
+    <t>Xpath Identifiers</t>
+  </si>
+  <si>
+    <t>DateOfBirthYear</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>register-button</t>
   </si>
 </sst>
 </file>
@@ -274,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E34613-BA60-46F5-8752-3D7AFC01906E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -862,7 +888,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1983D8-909D-4516-BDCE-AD9E9A653AEA}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d12d5796-3aaa-44db-ae6a-364f1b6c52d0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BC05CF65A2066B478A66F2F93BA31721" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="151e0ef791335968a46980ea326ea9e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d12d5796-3aaa-44db-ae6a-364f1b6c52d0" xmlns:ns4="585fd8e5-fed6-445a-97af-6145dc9e7183" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d2ee80288a3de9aaf62e39eba26fcf8" ns3:_="" ns4:_="">
     <xsd:import namespace="d12d5796-3aaa-44db-ae6a-364f1b6c52d0"/>
@@ -1083,24 +1204,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47A5545E-A7BD-48D7-8FFD-72D5F119E3A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d12d5796-3aaa-44db-ae6a-364f1b6c52d0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB2AFF1-FAED-4341-AE06-CB2153AAF00D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d12d5796-3aaa-44db-ae6a-364f1b6c52d0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="585fd8e5-fed6-445a-97af-6145dc9e7183"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EC5D9D6-CDF6-4442-8BE3-20D2D978B3EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1117,29 +1246,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47A5545E-A7BD-48D7-8FFD-72D5F119E3A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB2AFF1-FAED-4341-AE06-CB2153AAF00D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d12d5796-3aaa-44db-ae6a-364f1b6c52d0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="585fd8e5-fed6-445a-97af-6145dc9e7183"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>